--- a/networks/Poisson2D/Circle/SDCircle/WSolOnCircle/-0.1/time_precision/config1_P10/results_FEMs.xlsx
+++ b/networks/Poisson2D/Circle/SDCircle/WSolOnCircle/-0.1/time_precision/config1_P10/results_FEMs.xlsx
@@ -442,19 +442,19 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0.04707431793212891</v>
+        <v>0.04729509353637695</v>
       </c>
       <c r="D3">
-        <v>0.1779410839080811</v>
+        <v>0.1758599281311035</v>
       </c>
       <c r="E3">
-        <v>0.7039966583251953</v>
+        <v>0.6880128383636475</v>
       </c>
       <c r="F3">
-        <v>2.669963836669922</v>
+        <v>2.654144287109375</v>
       </c>
       <c r="G3">
-        <v>10.87065434455872</v>
+        <v>10.77253580093384</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -486,19 +486,19 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.02199578285217285</v>
+        <v>0.02147674560546875</v>
       </c>
       <c r="D5">
-        <v>0.08074712753295898</v>
+        <v>0.0805509090423584</v>
       </c>
       <c r="E5">
-        <v>0.3071444034576416</v>
+        <v>0.2973682880401611</v>
       </c>
       <c r="F5">
-        <v>1.197794914245605</v>
+        <v>1.1440749168396</v>
       </c>
       <c r="G5">
-        <v>4.683079481124878</v>
+        <v>4.495023965835571</v>
       </c>
     </row>
   </sheetData>
